--- a/biology/Zoologie/Chlordiméform/Chlordiméform.xlsx
+++ b/biology/Zoologie/Chlordiméform/Chlordiméform.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chlordim%C3%A9form</t>
+          <t>Chlordiméform</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Chlordiméform est un produit phytosanitaire, pesticide organochloré.
-Le chlordiméform est connu pour faire partie de la dirty dozen[4]  ou douzaine de polluants majeurs à l'échelle mondiale, selon la Convention de Rotterdam.
+Le chlordiméform est connu pour faire partie de la dirty dozen  ou douzaine de polluants majeurs à l'échelle mondiale, selon la Convention de Rotterdam.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chlordim%C3%A9form</t>
+          <t>Chlordiméform</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlorphénamidine, Fundal, Fundex, Galécron, Méthanimidamide, Ovatoxion, Spanone[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlorphénamidine, Fundal, Fundex, Galécron, Méthanimidamide, Ovatoxion, Spanone.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chlordim%C3%A9form</t>
+          <t>Chlordiméform</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chlordiméform est reconnu comme cancérigène dès 1983[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chlordiméform est reconnu comme cancérigène dès 1983.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chlordim%C3%A9form</t>
+          <t>Chlordiméform</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chlordiméform est interdit par les pays signataires de la Convention de Rotterdam.
 </t>
